--- a/2-Excel/class-02-search-functions.xlsx
+++ b/2-Excel/class-02-search-functions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40cbc61c02823304/Área de Trabalho/Emanuel/Data-Analyst-Course/1-Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40cbc61c02823304/Área de Trabalho/Emanuel/Data-Analysis-Course/2-Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="531" documentId="11_AD4D361C20488DEA4E38A0DDDC5C55145ADEDD8C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7ED10745-F28E-47D7-ABBA-BE3686DEE7A5}"/>
+  <xr:revisionPtr revIDLastSave="541" documentId="11_AD4D361C20488DEA4E38A0DDDC5C55145ADEDD8C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31D5BF99-C083-4A4C-9ADB-1B05F9A83882}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PROCV" sheetId="1" r:id="rId1"/>
@@ -198,10 +198,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -479,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G12"/>
+  <dimension ref="B2:I12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -490,16 +486,16 @@
     <col min="2" max="2" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.08984375" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.90625" customWidth="1"/>
-    <col min="8" max="8" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.26953125" customWidth="1"/>
-    <col min="11" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" customWidth="1"/>
+    <col min="7" max="7" width="10.36328125" customWidth="1"/>
+    <col min="8" max="8" width="6.26953125" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -509,14 +505,21 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="3">
+        <f>VLOOKUP(F2,Tabela2[],3,FALSE)</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -527,7 +530,7 @@
         <v>12900</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -537,15 +540,8 @@
       <c r="D4" s="1">
         <v>23000</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="3">
-        <f>VLOOKUP(G2,Tabela2[],3,FALSE)</f>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -556,7 +552,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -567,7 +563,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -578,7 +574,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -589,7 +585,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>9</v>
       </c>
@@ -600,7 +596,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -611,7 +607,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>11</v>
       </c>
@@ -622,7 +618,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>12</v>
       </c>
@@ -636,7 +632,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{A626ED15-C02C-4E07-8820-4151C7CE3021}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{A626ED15-C02C-4E07-8820-4151C7CE3021}">
       <formula1>$B$3:$B$12</formula1>
     </dataValidation>
   </dataValidations>
